--- a/assets/disciplinas/LOM3066.xlsx
+++ b/assets/disciplinas/LOM3066.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EM-10</t>
+    <t>EM-8</t>
   </si>
   <si>
     <t>Objetivos:</t>
@@ -130,11 +130,11 @@
     <t>Requisitos:</t>
   </si>
   <si>
-    <t xml:space="preserve">LOM3036 -  Propriedades Mecânicas  (Requisito)
+    <t xml:space="preserve">LOM3011 -  Ensaios Mecânicos  (Requisito fraco)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LOM3057 -  Introdução aos Materiais Poliméricos  (Requisito)
+    <t xml:space="preserve">LOM3046 -  Técnicas de Análise Microestrutural  (Requisito fraco)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOM3066.xlsx
+++ b/assets/disciplinas/LOM3066.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/1996</t>
+    <t>01/01/2022</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Fornecer aos estudantes uma visão abrangente e interdisciplinar dos materiais compostos por fases caracterizadas por distintos tipos de materiais (metais, cerâmicas e polímeros) para obter propriedades únicas. Apresentar os fundamentos teóricos da mecânica de estruturas reforçadas com fibras, tecidos e partículas. Apresentar os diferentes tipos de materiais compósitos, inclusive sobre os nanocompósitos e compósitos funcionais, que representam o avanço mais recente na área de Ciência e Engenharia de Materiais.</t>
+    <t>Fornecer aos estudantes uma visão abrangente e interdisciplinar sobre materiais compósitos, além de mostrar as especificidades de cada matriz, sendo ela metálica, cerâmica ou polimérica. Ademais, deseja-se apresentar os fundamentos teóricos da mecânica de estruturas reforçadas e a partir de atividades práticas demostrar métodos de caracterização de materiais compósitos e como prepara-los.</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,10 +82,16 @@
     <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
+    <t>1033242 - Fábio Herbst Florenzano</t>
+  </si>
+  <si>
+    <t>1922320 - Sebastiao Ribeiro</t>
+  </si>
+  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Materiais compósitos: tipos, propriedades, processamento e aplicações. Nanocompósitos e compósitos funcionais.</t>
+    <t>1.Introduçâo 2. Conceitos básicos sobre materiais compósitos, suas matrizes e seus processo de fabricação 3. Tipos de reforços 4. Compósitos nanoestruturados, naturais e híbridos 5. Mecânica da estrutura reforçada 6. Atividade prática</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,7 +100,7 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Conteúdo teórico:1. Conceitos básicos sobre materiais compósitos: compósitos de matriz metálica (CMM), compósitos de matriz cerâmicos (CMC) e compósitos de matriz polimérica (CMP) e nanocompósitos.2. Fibras, tecidos e reforços particulados.3. Mecânica de estruturas reforçadas.4. Compósitos de matriz metálica: características e processos de fabricação.5. Compósitos de matriz cerâmica: características e processos de fabricação.6. Compósitos de matriz polimérica: matrizes termoplásticas e termorrígidas, características físicas e químicas e processos de fabricação.7. Compósitos nanoestruturados.8.Compósitos funcionais.Conteúdo prático:1. Caracterização e análise de compósitos de matriz metálica.2. Preparação e caracterização de compósito de matriz polimérica.3. Visita a empresa produtora de compósitos.</t>
+    <t>1. Conceitos básicos sobre materiais compósitos: compósitos de matriz metálica (CMM), compósitos de matriz cerâmicos (CMC) e compósitos de matriz polimérica (CMP) e nanocompósitos. 2. Tipos de Reforços: Reforços particulados, fibras curtas, fibras longas, mantas, tecidos e preformas. 3. Conceitos de Interface4. Compósitos de matriz metálica: características e processos de fabricação. 5. Compósitos de matriz cerâmica: características e processos de fabricação. 6. Compósitos de matriz polimérica: matrizes termoplásticas e termorrígidas, características físicas e químicas e processos de fabricação. 7. Compósitos nanoestruturados. 8. Compósitos Naturais. 9. Compósitos Híbridos 10. Mecânica de estruturas reforçadas. Conteúdo prático: 1. Caracterização e análise de compósitos de matriz metálica. 2. Preparação e caracterização de compósitos de matriz polimérica.(Sugestão: Considerar substituir essa parte prática pela realização do PBL descrito no item 3) 3. Visita a empresa produtora de compósitos e aulas especiais e/ou palestras com professores/pesquisadores convidados</t>
   </si>
   <si>
     <t>Syllabus:</t>
@@ -106,25 +112,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>A avaliação será feita por meio de provas escritas.</t>
+    <t>De acordo com a atual ementa da disciplina propõe-se o uso de uma nova metodologia de ensino com o intuito de abordar o conteúdo de forma mais prática e contextualizada para que o aluno consiga relacionar os conhecimentos teóricos vistos em sala de aula com as outras disciplinas do curso. Assim, avaliação do aluno será feita através de uma prova escrita e por uma apresentação final com base nas atividades práticas desenvolvidas.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>A Nota final (NF) será calculada da seguinte maneira:NF = (P1 + 2*P2)/3</t>
+    <t>A nota final será calculada como descrita a seguir: NF= (0,4*Avaliação escrita + 0,6 *Apresentação final)</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) calculada pela fórmula: MR = (NF + PR)/2</t>
+    <t>Devido a cunho prático da disciplina não haverá recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>1. MALLICK, P.K. Composites Engineering Handbook. New York: Marcel Dekker, 1997.2. MATTHEWS, F.L. &amp; RAWLINGS, R.D. Composite Materials: Engineering and Science. London: Chapman &amp; Hall, 1994.3. OBRAZTSOV, I.F. Mechanics of Composites. Moscow: MIR Publishers, 1982.4. JONES R. Mechanics of Composite Materials. New York: McGraw-Hill, 1975.5. UPADHYAYA, G.S. Sintered Metal-Ceramic Composites. Elsevier, 1984.6. HARPER, C. A. Handbook of Plastics, Elastomers and Composites. New York: McGraw-Hill, 1992.7. GOLDSTEIN, A.N. Handbook of Nanophase Materials. CRC Press, 1997.8. DRESSELHAUS, M.S. Graphite Fibers and Filaments. New York: Springer-Verlag, 1988.</t>
+    <t>1. REZENDE, M. C.; COSTA, M. L.; BOTELHO, E. C. Compósitos estruturais: tecnologia e prática. São Paulo: Artliber, 2011. 396p. 2 MALLICK, P.K. Composites Engineering Handbook. New York: Marcel Dekker, 1997. 3. MATTHEWS, F.L. &amp; RAWLINGS, R.D. Composite Materials: Engineering and Science. London: Chapman &amp; Hall, 1994. 4. OBRAZTSOV, I.F. Mechanics of Composites. Moscow: MIR Publishers, 1982. 5. JONES R. Mechanics of Composite Materials. New York: McGraw-Hill, 1975. 6. UPADHYAYA, G.S. Sintered Metal-Ceramic Composites. Elsevier, 1984. 7. HARPER, C. A. Handbook of Plastics, Elastomers and Composites. New York: McGraw-Hill, 1992. 8. GOLDSTEIN, A.N. Handbook of Nanophase Materials. CRC Press, 1997. 9. DRESSELHAUS, M.S. Graphite Fibers and Filaments. New York: Springer-Verlag, 1988.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -491,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,93 +630,96 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:3" ht="60" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="60" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="C18" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="120" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="60" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:3" ht="60" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:3" ht="120" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
@@ -718,12 +727,25 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" customHeight="1">
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3066.xlsx
+++ b/assets/disciplinas/LOM3066.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Fornecer aos estudantes uma visão abrangente e interdisciplinar sobre materiais compósitos, além de mostrar as especificidades de cada matriz, sendo ela metálica, cerâmica ou polimérica. Ademais, deseja-se apresentar os fundamentos teóricos da mecânica de estruturas reforçadas e a partir de atividades práticas demostrar métodos de caracterização de materiais compósitos e como prepara-los.</t>
+    <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,58 +79,46 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>519033 - Carlos Yujiro Shigue</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
   </si>
   <si>
     <t>1033242 - Fábio Herbst Florenzano</t>
   </si>
   <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
+  </si>
+  <si>
     <t>1922320 - Sebastiao Ribeiro</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>1.Introduçâo 2. Conceitos básicos sobre materiais compósitos, suas matrizes e seus processo de fabricação 3. Tipos de reforços 4. Compósitos nanoestruturados, naturais e híbridos 5. Mecânica da estrutura reforçada 6. Atividade prática</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>1. Conceitos básicos sobre materiais compósitos: compósitos de matriz metálica (CMM), compósitos de matriz cerâmicos (CMC) e compósitos de matriz polimérica (CMP) e nanocompósitos. 2. Tipos de Reforços: Reforços particulados, fibras curtas, fibras longas, mantas, tecidos e preformas. 3. Conceitos de Interface4. Compósitos de matriz metálica: características e processos de fabricação. 5. Compósitos de matriz cerâmica: características e processos de fabricação. 6. Compósitos de matriz polimérica: matrizes termoplásticas e termorrígidas, características físicas e químicas e processos de fabricação. 7. Compósitos nanoestruturados. 8. Compósitos Naturais. 9. Compósitos Híbridos 10. Mecânica de estruturas reforçadas. Conteúdo prático: 1. Caracterização e análise de compósitos de matriz metálica. 2. Preparação e caracterização de compósitos de matriz polimérica.(Sugestão: Considerar substituir essa parte prática pela realização do PBL descrito no item 3) 3. Visita a empresa produtora de compósitos e aulas especiais e/ou palestras com professores/pesquisadores convidados</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>De acordo com a atual ementa da disciplina propõe-se o uso de uma nova metodologia de ensino com o intuito de abordar o conteúdo de forma mais prática e contextualizada para que o aluno consiga relacionar os conhecimentos teóricos vistos em sala de aula com as outras disciplinas do curso. Assim, avaliação do aluno será feita através de uma prova escrita e por uma apresentação final com base nas atividades práticas desenvolvidas.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A nota final será calculada como descrita a seguir: NF= (0,4*Avaliação escrita + 0,6 *Apresentação final)</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Devido a cunho prático da disciplina não haverá recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1. REZENDE, M. C.; COSTA, M. L.; BOTELHO, E. C. Compósitos estruturais: tecnologia e prática. São Paulo: Artliber, 2011. 396p. 2 MALLICK, P.K. Composites Engineering Handbook. New York: Marcel Dekker, 1997. 3. MATTHEWS, F.L. &amp; RAWLINGS, R.D. Composite Materials: Engineering and Science. London: Chapman &amp; Hall, 1994. 4. OBRAZTSOV, I.F. Mechanics of Composites. Moscow: MIR Publishers, 1982. 5. JONES R. Mechanics of Composite Materials. New York: McGraw-Hill, 1975. 6. UPADHYAYA, G.S. Sintered Metal-Ceramic Composites. Elsevier, 1984. 7. HARPER, C. A. Handbook of Plastics, Elastomers and Composites. New York: McGraw-Hill, 1992. 8. GOLDSTEIN, A.N. Handbook of Nanophase Materials. CRC Press, 1997. 9. DRESSELHAUS, M.S. Graphite Fibers and Filaments. New York: Springer-Verlag, 1988.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -497,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,47 +610,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -673,42 +658,45 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="120" customHeight="1">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+        <v>31</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="60" customHeight="1">
-      <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
@@ -716,36 +704,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="120" customHeight="1">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1">
-      <c r="B27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3066.xlsx
+++ b/assets/disciplinas/LOM3066.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EM-8</t>
+    <t>EF-8,EM-8</t>
   </si>
   <si>
     <t>Objetivos:</t>
@@ -119,17 +119,6 @@
   </si>
   <si>
     <t>Devido a cunho prático da disciplina não haverá recuperação.</t>
-  </si>
-  <si>
-    <t>Requisitos:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOM3011 -  Ensaios Mecânicos  (Requisito fraco)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOM3046 -  Técnicas de Análise Microestrutural  (Requisito fraco)
-</t>
   </si>
 </sst>
 </file>
@@ -485,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -691,27 +680,6 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/disciplinas/LOM3066.xlsx
+++ b/assets/disciplinas/LOM3066.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,25 +70,37 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Fornecer aos estudantes uma visão abrangente e interdisciplinar sobre materiais compósitos, além de mostrar as especificidades de cada matriz, sendo ela metálica, cerâmica ou polimérica. Ademais, deseja-se apresentar os fundamentos teóricos da mecânica de estruturas reforçadas e a partir de atividades práticas demostrar métodos de caracterização de materiais compósitos e como prepara-los.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>1033242 - Fábio Herbst Florenzano</t>
+  </si>
+  <si>
+    <t>1922320 - Sebastiao Ribeiro</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>1.Introduçâo 2. Conceitos básicos sobre materiais compósitos, suas matrizes e seus processo de fabricação 3. Tipos de reforços 4. Compósitos nanoestruturados, naturais e híbridos 5. Mecânica da estrutura reforçada 6. Atividade prática</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
-    <t>1033242 - Fábio Herbst Florenzano</t>
+    <t>1. Conceitos básicos sobre materiais compósitos: compósitos de matriz metálica (CMM), compósitos de matriz cerâmicos (CMC) e compósitos de matriz polimérica (CMP) e nanocompósitos. 2. Tipos de Reforços: Reforços particulados, fibras curtas, fibras longas, mantas, tecidos e preformas. 3. Conceitos de Interface4. Compósitos de matriz metálica: características e processos de fabricação. 5. Compósitos de matriz cerâmica: características e processos de fabricação. 6. Compósitos de matriz polimérica: matrizes termoplásticas e termorrígidas, características físicas e químicas e processos de fabricação. 7. Compósitos nanoestruturados. 8. Compósitos Naturais. 9. Compósitos Híbridos 10. Mecânica de estruturas reforçadas. Conteúdo prático: 1. Caracterização e análise de compósitos de matriz metálica. 2. Preparação e caracterização de compósitos de matriz polimérica.(Sugestão: Considerar substituir essa parte prática pela realização do PBL descrito no item 3) 3. Visita a empresa produtora de compósitos e aulas especiais e/ou palestras com professores/pesquisadores convidados</t>
   </si>
   <si>
     <t>Syllabus:</t>
@@ -100,25 +112,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>1922320 - Sebastiao Ribeiro</t>
+    <t>De acordo com a atual ementa da disciplina propõe-se o uso de uma nova metodologia de ensino com o intuito de abordar o conteúdo de forma mais prática e contextualizada para que o aluno consiga relacionar os conhecimentos teóricos vistos em sala de aula com as outras disciplinas do curso. Assim, avaliação do aluno será feita através de uma prova escrita e por uma apresentação final com base nas atividades práticas desenvolvidas.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>De acordo com a atual ementa da disciplina propõe-se o uso de uma nova metodologia de ensino com o intuito de abordar o conteúdo de forma mais prática e contextualizada para que o aluno consiga relacionar os conhecimentos teóricos vistos em sala de aula com as outras disciplinas do curso. Assim, avaliação do aluno será feita através de uma prova escrita e por uma apresentação final com base nas atividades práticas desenvolvidas.</t>
+    <t>A nota final será calculada como descrita a seguir: NF= (0,4*Avaliação escrita + 0,6 *Apresentação final)</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A nota final será calculada como descrita a seguir: NF= (0,4*Avaliação escrita + 0,6 *Apresentação final)</t>
+    <t>Devido a cunho prático da disciplina não haverá recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Devido a cunho prático da disciplina não haverá recuperação.</t>
+    <t>1. REZENDE, M. C.; COSTA, M. L.; BOTELHO, E. C. Compósitos estruturais: tecnologia e prática. São Paulo: Artliber, 2011. 396p. 2 MALLICK, P.K. Composites Engineering Handbook. New York: Marcel Dekker, 1997. 3. MATTHEWS, F.L. &amp; RAWLINGS, R.D. Composite Materials: Engineering and Science. London: Chapman &amp; Hall, 1994. 4. OBRAZTSOV, I.F. Mechanics of Composites. Moscow: MIR Publishers, 1982. 5. JONES R. Mechanics of Composite Materials. New York: McGraw-Hill, 1975. 6. UPADHYAYA, G.S. Sintered Metal-Ceramic Composites. Elsevier, 1984. 7. HARPER, C. A. Handbook of Plastics, Elastomers and Composites. New York: McGraw-Hill, 1992. 8. GOLDSTEIN, A.N. Handbook of Nanophase Materials. CRC Press, 1997. 9. DRESSELHAUS, M.S. Graphite Fibers and Filaments. New York: Springer-Verlag, 1988.</t>
   </si>
 </sst>
 </file>
@@ -474,13 +486,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -599,44 +611,47 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -647,37 +662,58 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+    <row r="19" spans="1:3" ht="120" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="60" customHeight="1">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="60" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="120" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
